--- a/ZMMI_ZMMO_ZMMS_INFO.xlsx
+++ b/ZMMI_ZMMO_ZMMS_INFO.xlsx
@@ -14,17 +14,20 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
   <si>
     <t>IMSI</t>
   </si>
   <si>
+    <t>UNKNOWN SUBSCRIBER</t>
+  </si>
+  <si>
+    <t>MSISDN</t>
+  </si>
+  <si>
     <t>none</t>
   </si>
   <si>
-    <t>MSISDN</t>
-  </si>
-  <si>
     <t>RADIO ACCESS TYPE</t>
   </si>
   <si>
@@ -38,6 +41,12 @@
   </si>
   <si>
     <t>CI</t>
+  </si>
+  <si>
+    <t>SUBSCRIBER</t>
+  </si>
+  <si>
+    <t>exists</t>
   </si>
 </sst>
 </file>
@@ -369,13 +378,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -383,42 +392,48 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G1" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="H1" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G2" t="s">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="H2" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
